--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Instructor Files/Section 5/05-06-the-filter-function.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Instructor Files/Section 5/05-06-the-filter-function.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Intermediate/Course Files/Section 5/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Intermediate Course Files\Instructor Files\Section 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{4F8455B8-3703-4347-8682-421DED8EA6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{461B9FC0-9AEF-4123-A0F1-0A906B147A5A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B0A615C-8594-4BC6-89E5-49B2DA2F6883}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{5BA352E3-CE18-4C59-9F5C-5F1372256CDB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{5BA352E3-CE18-4C59-9F5C-5F1372256CDB}"/>
   </bookViews>
   <sheets>
     <sheet name="FILTER Function" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="39">
   <si>
     <t>Block</t>
   </si>
@@ -175,9 +175,6 @@
   </si>
   <si>
     <t>Filter By:</t>
-  </si>
-  <si>
-    <t>&gt;50</t>
   </si>
 </sst>
 </file>
@@ -220,7 +217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -239,20 +236,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF006699"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -268,6 +314,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B970C8AB-7ED7-490A-B98C-D1412039D519}" name="Table1" displayName="Table1" ref="A4:D29" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="A4:D29" xr:uid="{B970C8AB-7ED7-490A-B98C-D1412039D519}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{986B205A-A59E-4750-B60C-A22F992A1543}" name="Block"/>
+    <tableColumn id="2" xr3:uid="{0FD0B54E-ABD7-4D5D-8852-736F39173033}" name="Student"/>
+    <tableColumn id="3" xr3:uid="{84CE542A-D025-4192-9A3C-2C82EF491386}" name="Exam"/>
+    <tableColumn id="4" xr3:uid="{A4FAC481-3092-4996-B769-437DDD8E87AA}" name="Mark"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -569,11 +628,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A5BB88-4320-47B4-8468-098127FC4EE0}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -581,16 +643,16 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -625,6 +687,19 @@
       <c r="F5" t="s">
         <v>33</v>
       </c>
+      <c r="H5" t="str" cm="1">
+        <f t="array" ref="H5:K11">_xlfn._xlws.FILTER(A5:D29,C5:C29=F5,"")</f>
+        <v>North</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Adam</v>
+      </c>
+      <c r="J5" t="str">
+        <v>English</v>
+      </c>
+      <c r="K5">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -639,6 +714,18 @@
       <c r="D6">
         <v>25</v>
       </c>
+      <c r="H6" t="str">
+        <v>South</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Julie</v>
+      </c>
+      <c r="J6" t="str">
+        <v>English</v>
+      </c>
+      <c r="K6">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -652,6 +739,18 @@
       </c>
       <c r="D7">
         <v>40</v>
+      </c>
+      <c r="H7" t="str">
+        <v>East</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Sarah</v>
+      </c>
+      <c r="J7" t="str">
+        <v>English</v>
+      </c>
+      <c r="K7">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -667,6 +766,18 @@
       <c r="D8">
         <v>80</v>
       </c>
+      <c r="H8" t="str">
+        <v>West</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Christine</v>
+      </c>
+      <c r="J8" t="str">
+        <v>English</v>
+      </c>
+      <c r="K8">
+        <v>73</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -681,6 +792,18 @@
       <c r="D9">
         <v>90</v>
       </c>
+      <c r="H9" t="str">
+        <v>South</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Lucas</v>
+      </c>
+      <c r="J9" t="str">
+        <v>English</v>
+      </c>
+      <c r="K9">
+        <v>97</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -695,6 +818,18 @@
       <c r="D10">
         <v>100</v>
       </c>
+      <c r="H10" t="str">
+        <v>West</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Noah</v>
+      </c>
+      <c r="J10" t="str">
+        <v>English</v>
+      </c>
+      <c r="K10">
+        <v>99</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -708,6 +843,18 @@
       </c>
       <c r="D11">
         <v>35</v>
+      </c>
+      <c r="H11" t="str">
+        <v>West</v>
+      </c>
+      <c r="I11" t="str">
+        <v>Fleur</v>
+      </c>
+      <c r="J11" t="str">
+        <v>English</v>
+      </c>
+      <c r="K11">
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -964,6 +1111,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -972,7 +1122,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1030,20 +1180,20 @@
         <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H5" t="str" cm="1">
-        <f t="array" ref="H5:K7">_xlfn._xlws.FILTER(A5:D29,(C5:C29=F5)*(A5:A29=F8),"No Records")</f>
+        <f t="array" ref="H5:K6">_xlfn._xlws.FILTER(A5:D29,(C5:C29=F5)*(A5:A29=F8),"No Records")</f>
         <v>West</v>
       </c>
       <c r="I5" t="str">
-        <v>Christine</v>
+        <v>Martin</v>
       </c>
       <c r="J5" t="str">
-        <v>English</v>
+        <v>French</v>
       </c>
       <c r="K5">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -1063,13 +1213,13 @@
         <v>West</v>
       </c>
       <c r="I6" t="str">
-        <v>Noah</v>
+        <v>Ava</v>
       </c>
       <c r="J6" t="str">
-        <v>English</v>
+        <v>French</v>
       </c>
       <c r="K6">
-        <v>99</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1087,18 +1237,6 @@
       </c>
       <c r="F7" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="H7" t="str">
-        <v>West</v>
-      </c>
-      <c r="I7" t="str">
-        <v>Fleur</v>
-      </c>
-      <c r="J7" t="str">
-        <v>English</v>
-      </c>
-      <c r="K7">
-        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1421,8 +1559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8667DA9B-279A-40ED-A4DD-443FF0A78B6A}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1482,6 +1620,19 @@
       <c r="F5" t="s">
         <v>33</v>
       </c>
+      <c r="H5" t="str" cm="1">
+        <f t="array" ref="H5:K7">_xlfn._xlws.SORT(_xlfn._xlws.FILTER(A5:D29,(C5:C29=F5)*(A5:A29=F8)*(D5:D29&gt;F11),"No Records"),4,-1,FALSE)</f>
+        <v>West</v>
+      </c>
+      <c r="I5" t="str">
+        <v>Noah</v>
+      </c>
+      <c r="J5" t="str">
+        <v>English</v>
+      </c>
+      <c r="K5">
+        <v>99</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1496,6 +1647,18 @@
       <c r="D6">
         <v>25</v>
       </c>
+      <c r="H6" t="str">
+        <v>West</v>
+      </c>
+      <c r="I6" t="str">
+        <v>Fleur</v>
+      </c>
+      <c r="J6" t="str">
+        <v>English</v>
+      </c>
+      <c r="K6">
+        <v>90</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1512,6 +1675,18 @@
       </c>
       <c r="F7" s="3" t="s">
         <v>0</v>
+      </c>
+      <c r="H7" t="str">
+        <v>West</v>
+      </c>
+      <c r="I7" t="str">
+        <v>Christine</v>
+      </c>
+      <c r="J7" t="str">
+        <v>English</v>
+      </c>
+      <c r="K7">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -1575,8 +1750,8 @@
       <c r="D11">
         <v>35</v>
       </c>
-      <c r="F11" t="s">
-        <v>39</v>
+      <c r="F11">
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
